--- a/keywordData.xlsx
+++ b/keywordData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chandan\JavaWorkspaceJan20\SeleniumMavenAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE166982-9CF5-4574-B154-51DA53ECADE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7C6C24-21D5-463D-9E09-C7D56C4C551E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2200" windowWidth="14400" windowHeight="7360" xr2:uid="{3515A25E-B4E1-47F9-A3A2-EA453CBA017F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3515A25E-B4E1-47F9-A3A2-EA453CBA017F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -109,6 +109,54 @@
   </si>
   <si>
     <t>txtUserID</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>click on new customer link</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>linkNewCustomer</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>click on new account link</t>
+  </si>
+  <si>
+    <t>linkNewAccount</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Fill customer name</t>
+  </si>
+  <si>
+    <t>txtCustomerName</t>
+  </si>
+  <si>
+    <t>click on Male button</t>
+  </si>
+  <si>
+    <t>clickRadio</t>
+  </si>
+  <si>
+    <t>btnGender</t>
+  </si>
+  <si>
+    <t>Prasoona</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -469,20 +517,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F57612C-1F25-4E66-9FAE-ECFDF06C67C1}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -600,6 +649,121 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/keywordData.xlsx
+++ b/keywordData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chandan\JavaWorkspaceJan20\SeleniumMavenAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7C6C24-21D5-463D-9E09-C7D56C4C551E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB9F78-F2B7-4B61-8A20-A42E32023534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3515A25E-B4E1-47F9-A3A2-EA453CBA017F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>click on edit customer link</t>
+  </si>
+  <si>
+    <t>linkEditCustomer</t>
+  </si>
+  <si>
+    <t>fill customer id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>txtCustomerID</t>
+  </si>
+  <si>
+    <t>Cust1000</t>
   </si>
 </sst>
 </file>
@@ -517,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F57612C-1F25-4E66-9FAE-ECFDF06C67C1}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,6 +785,52 @@
         <v>41</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
